--- a/Past_Pandemic_MetaData.xlsx
+++ b/Past_Pandemic_MetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pandemic-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6422F-A229-4EF7-8AF0-2A6473687972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42482881-744C-4923-8C0D-A9A30F4ECDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17655" yWindow="4170" windowWidth="19905" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2550" windowWidth="28335" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="151">
   <si>
     <t>Pandemic</t>
   </si>
@@ -580,11 +580,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,8 +807,8 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O9" sqref="O9"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,8 +836,8 @@
     <col min="25" max="25" width="11.375" customWidth="1"/>
     <col min="26" max="26" width="10.125" customWidth="1"/>
     <col min="27" max="27" width="12.125" customWidth="1"/>
-    <col min="28" max="28" width="12.375" customWidth="1"/>
-    <col min="29" max="29" width="14.375" customWidth="1"/>
+    <col min="28" max="28" width="27.125" customWidth="1"/>
+    <col min="29" max="29" width="32.375" customWidth="1"/>
     <col min="30" max="30" width="12.125" customWidth="1"/>
     <col min="31" max="31" width="12.75" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
@@ -1239,12 +1239,10 @@
       <c r="AA4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>42</v>
+      <c r="AB4" s="2">
+        <v>21</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2">
         <v>17.399999999999999</v>
       </c>
@@ -37542,7 +37540,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -37619,7 +37617,7 @@
       <c r="C4" s="2">
         <v>12.27</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="2"/>
@@ -37936,7 +37934,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -38013,7 +38011,7 @@
       <c r="C16" s="2">
         <v>5.33</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="4"/>
@@ -38104,7 +38102,7 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -38281,7 +38279,7 @@
       <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="4"/>
@@ -38404,7 +38402,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -38413,7 +38411,7 @@
       <c r="C28" s="4">
         <v>3.8</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>123</v>
       </c>
       <c r="E28" s="4"/>
@@ -38540,7 +38538,7 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -38549,7 +38547,7 @@
       <c r="C32" s="4">
         <v>6.3</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="4"/>
@@ -38874,7 +38872,7 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -39017,7 +39015,7 @@
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E46" s="4"/>
@@ -39076,7 +39074,7 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -39187,7 +39185,7 @@
       <c r="C51" s="2">
         <v>15.35</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E51" s="4"/>
@@ -39285,7 +39283,7 @@
       <c r="C54" s="4">
         <v>6.9</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E54" s="4"/>
@@ -65819,6 +65817,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A48:A55"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="A2:A13"/>
@@ -65835,9 +65836,6 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="A19:A27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
